--- a/forms/app/covid_rdt_follow.xlsx
+++ b/forms/app/covid_rdt_follow.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="211">
   <si>
     <t>form_title</t>
   </si>
@@ -665,13 +665,10 @@
     <t>°C</t>
   </si>
   <si>
-    <t>patient_dob</t>
-  </si>
-  <si>
-    <t>patient_phone</t>
-  </si>
-  <si>
-    <t>patient_household</t>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
   </si>
 </sst>
 </file>
@@ -1253,13 +1250,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD23"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1874,7 +1871,7 @@
       <c r="Z16" s="31"/>
       <c r="AA16" s="31"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>66</v>
       </c>
@@ -1909,7 +1906,7 @@
       <c r="Z17" s="31"/>
       <c r="AA17" s="31"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -1938,12 +1935,12 @@
       <c r="Z18" s="34"/>
       <c r="AA18" s="34"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>30</v>
@@ -1956,16 +1953,15 @@
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="22"/>
+        <v>210</v>
+      </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
-      <c r="S19" s="23"/>
+      <c r="S19" s="22"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
       <c r="V19" s="23"/>
@@ -1974,13 +1970,14 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="23"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>30</v>
@@ -1993,7 +1990,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
@@ -2012,12 +2009,12 @@
       <c r="Z20" s="23"/>
       <c r="AA20" s="23"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>30</v>
@@ -2029,7 +2026,9 @@
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="K21" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
@@ -2047,122 +2046,128 @@
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="I25" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>105</v>
+      </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -2181,15 +2186,15 @@
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -2201,9 +2206,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
-      <c r="N26" s="36" t="s">
-        <v>51</v>
-      </c>
+      <c r="N26" s="36"/>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
@@ -2218,66 +2221,68 @@
       <c r="Z26" s="38"/>
       <c r="AA26" s="38"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="37"/>
+        <v>93</v>
+      </c>
+      <c r="D27" s="36"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
-      <c r="N27" s="36"/>
+      <c r="N27" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="37"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="I28" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>105</v>
+      </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
-      <c r="N28" s="36"/>
+      <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
@@ -2292,17 +2297,19 @@
       <c r="Z28" s="38"/>
       <c r="AA28" s="38"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="36"/>
+        <v>125</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -2312,9 +2319,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
-      <c r="N29" s="36" t="s">
-        <v>52</v>
-      </c>
+      <c r="N29" s="37"/>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
@@ -2329,27 +2334,27 @@
       <c r="Z29" s="36"/>
       <c r="AA29" s="36"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="37"/>
+        <v>131</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>105</v>
-      </c>
+      <c r="F30" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
@@ -2368,26 +2373,24 @@
       <c r="Z30" s="38"/>
       <c r="AA30" s="38"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
-      <c r="K31" s="36"/>
+      <c r="K31" s="37"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
@@ -2395,33 +2398,23 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>80</v>
-      </c>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="37"/>
-      <c r="F32" s="36" t="s">
-        <v>134</v>
-      </c>
+      <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
@@ -2434,29 +2427,23 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>137</v>
-      </c>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
@@ -2469,15 +2456,15 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
       <c r="R33" s="37"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
@@ -2485,7 +2472,7 @@
       <c r="C34" s="36"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -2510,11 +2497,11 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
-      <c r="F35" s="36"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
@@ -2539,11 +2526,11 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
-      <c r="F36" s="36"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
@@ -2567,7 +2554,7 @@
       <c r="AA36" s="36"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -2597,13 +2584,13 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
@@ -2614,28 +2601,28 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="37"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
+      <c r="K39" s="36"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
@@ -2659,12 +2646,12 @@
       <c r="C40" s="36"/>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="36"/>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
+      <c r="K40" s="36"/>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
       <c r="N40" s="37"/>
@@ -2672,15 +2659,15 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
       <c r="R40" s="37"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
@@ -2688,12 +2675,12 @@
       <c r="C41" s="36"/>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="36"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
-      <c r="K41" s="36"/>
+      <c r="K41" s="37"/>
       <c r="L41" s="37"/>
       <c r="M41" s="37"/>
       <c r="N41" s="37"/>
@@ -2718,11 +2705,11 @@
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="36"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
-      <c r="K42" s="36"/>
+      <c r="K42" s="37"/>
       <c r="L42" s="37"/>
       <c r="M42" s="37"/>
       <c r="N42" s="37"/>
@@ -2775,8 +2762,8 @@
       <c r="C44" s="36"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
@@ -2804,7 +2791,7 @@
       <c r="C45" s="36"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="36"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -3003,8 +2990,8 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
@@ -3032,8 +3019,8 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
@@ -3078,25 +3065,25 @@
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
       <c r="R54" s="37"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="37"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="37"/>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="37"/>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
@@ -3107,20 +3094,20 @@
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
       <c r="R55" s="37"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="37"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
@@ -3136,15 +3123,15 @@
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
       <c r="R56" s="37"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="40"/>
-      <c r="AA56" s="40"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="36"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
@@ -3153,8 +3140,8 @@
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
       <c r="K57" s="37"/>
@@ -3165,15 +3152,15 @@
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="40"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
@@ -3235,8 +3222,8 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
@@ -3281,20 +3268,20 @@
       <c r="P61" s="37"/>
       <c r="Q61" s="37"/>
       <c r="R61" s="37"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="40"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="37"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
@@ -3310,15 +3297,15 @@
       <c r="P62" s="37"/>
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
@@ -3327,8 +3314,8 @@
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
       <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
       <c r="K63" s="37"/>
@@ -3385,8 +3372,8 @@
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
       <c r="I65" s="37"/>
       <c r="J65" s="37"/>
       <c r="K65" s="37"/>
@@ -3472,11 +3459,11 @@
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
       <c r="I68" s="37"/>
       <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
+      <c r="K68" s="36"/>
       <c r="L68" s="37"/>
       <c r="M68" s="37"/>
       <c r="N68" s="37"/>
@@ -3500,12 +3487,12 @@
       <c r="C69" s="36"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
       <c r="I69" s="37"/>
       <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
+      <c r="K69" s="36"/>
       <c r="L69" s="37"/>
       <c r="M69" s="37"/>
       <c r="N69" s="37"/>
@@ -3530,11 +3517,11 @@
       <c r="D70" s="37"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
       <c r="I70" s="37"/>
       <c r="J70" s="37"/>
-      <c r="K70" s="36"/>
+      <c r="K70" s="37"/>
       <c r="L70" s="37"/>
       <c r="M70" s="37"/>
       <c r="N70" s="37"/>
@@ -3552,67 +3539,9 @@
       <c r="Z70" s="40"/>
       <c r="AA70" s="40"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="40"/>
-    </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
-      <c r="AA72" s="40"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:E72">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E18 E19:F19 D20:E70">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3782,7 +3711,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44121.642152546294</v>
+        <v>44121.653998379632</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">

--- a/forms/app/covid_rdt_follow.xlsx
+++ b/forms/app/covid_rdt_follow.xlsx
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44121.653998379632</v>
+        <v>44121.724676967591</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
